--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,21 +40,21 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -67,22 +67,28 @@
     <t>love</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>daughter</t>
   </si>
   <si>
     <t>salad</t>
@@ -91,217 +97,217 @@
     <t>kids</t>
   </si>
   <si>
-    <t>glad</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
+    <t>ever</t>
+  </si>
+  <si>
     <t>pie</t>
   </si>
   <si>
+    <t>perfectly</t>
+  </si>
+  <si>
     <t>comfortable</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>pop</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>exactly</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
+    <t>far</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>fast</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>every</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>coffee</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>long</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>used</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>product</t>
-  </si>
-  <si>
-    <t>would</t>
   </si>
   <si>
     <t>positive</t>
@@ -662,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,10 +676,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -731,37 +737,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4341085271317829</v>
+        <v>0.3979591836734694</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -781,13 +787,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3535353535353535</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -799,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9139784946236559</v>
+        <v>0.921875</v>
       </c>
       <c r="L4">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -823,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -831,63 +837,87 @@
         <v>10</v>
       </c>
       <c r="B5">
+        <v>0.3488372093023256</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>84</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L5">
+        <v>63</v>
+      </c>
+      <c r="M5">
+        <v>63</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>0.1891891891891892</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>35</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>35</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>150</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5">
-        <v>0.90625</v>
-      </c>
-      <c r="L5">
-        <v>116</v>
-      </c>
-      <c r="M5">
-        <v>116</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8840579710144928</v>
+        <v>0.8513931888544891</v>
       </c>
       <c r="L6">
-        <v>61</v>
+        <v>550</v>
       </c>
       <c r="M6">
-        <v>61</v>
+        <v>550</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -899,21 +929,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8622291021671826</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="L7">
-        <v>557</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>557</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,21 +955,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>89</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,21 +981,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8051948051948052</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L9">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,21 +1007,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.7593220338983051</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,21 +1033,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7359307359307359</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,21 +1059,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7272727272727273</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1055,21 +1085,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7016949152542373</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L13">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1081,21 +1111,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6986301369863014</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1112,16 +1142,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6938775510204082</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L15">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1133,15 +1163,15 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6875</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="L16">
         <v>33</v>
@@ -1159,21 +1189,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6805555555555556</v>
+        <v>0.671875</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1185,21 +1215,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6773675762439807</v>
+        <v>0.6709470304975923</v>
       </c>
       <c r="L18">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="M18">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1211,21 +1241,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.676056338028169</v>
+        <v>0.6685714285714286</v>
       </c>
       <c r="L19">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1237,21 +1267,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1263,21 +1293,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.65625</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1289,21 +1319,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.6342857142857142</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L22">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1315,21 +1345,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.6323529411764706</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1341,21 +1371,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.6307692307692307</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1367,21 +1397,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.6239316239316239</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L25">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1393,12 +1423,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26">
         <v>0.6078431372549019</v>
@@ -1424,16 +1454,16 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.6031746031746031</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1445,21 +1475,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1471,21 +1501,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.5808383233532934</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L29">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1497,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.5692307692307692</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1523,21 +1553,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.5409836065573771</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1549,21 +1579,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>0.5308641975308642</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L32">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1575,21 +1605,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.5288461538461539</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L33">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1601,21 +1631,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.5263157894736842</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1627,21 +1657,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.5180722891566265</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1658,16 +1688,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.5037593984962406</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L36">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1679,21 +1709,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>0.4761904761904762</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1705,21 +1735,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>0.47</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="L38">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1731,21 +1761,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>0.4518072289156627</v>
+        <v>0.46</v>
       </c>
       <c r="L39">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="M39">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1757,47 +1787,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>0.4226044226044226</v>
+        <v>0.4338235294117647</v>
       </c>
       <c r="L40">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M40">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.4210526315789473</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1809,21 +1839,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>0.4013698630136986</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="L42">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="M42">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1835,21 +1865,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>437</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.3923444976076555</v>
+        <v>0.3968871595330739</v>
       </c>
       <c r="L43">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="M43">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1861,21 +1891,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>0.3884892086330936</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="L44">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M44">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1887,21 +1917,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.3796296296296297</v>
+        <v>0.373972602739726</v>
       </c>
       <c r="L45">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="M45">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1913,21 +1943,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>67</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.3783783783783784</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L46">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M46">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1944,16 +1974,16 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.3764705882352941</v>
+        <v>0.354066985645933</v>
       </c>
       <c r="L47">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1965,21 +1995,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>53</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.3762376237623762</v>
+        <v>0.3390742734122713</v>
       </c>
       <c r="L48">
-        <v>38</v>
+        <v>315</v>
       </c>
       <c r="M48">
-        <v>38</v>
+        <v>315</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1991,21 +2021,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>63</v>
+        <v>614</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.3618677042801556</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L49">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="M49">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2017,21 +2047,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>164</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.3609022556390977</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L50">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M50">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2043,47 +2073,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.3545454545454546</v>
+        <v>0.3311258278145696</v>
       </c>
       <c r="L51">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N51">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.3087248322147651</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L52">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M52">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2095,21 +2125,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>0.3038793103448276</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="L53">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="M53">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2118,76 +2148,76 @@
         <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>646</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.2972972972972973</v>
+        <v>0.2946428571428572</v>
       </c>
       <c r="L54">
         <v>33</v>
       </c>
       <c r="M54">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N54">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O54">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.2761904761904762</v>
+        <v>0.2837837837837838</v>
       </c>
       <c r="L55">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M55">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.2754966887417218</v>
+        <v>0.2728476821192053</v>
       </c>
       <c r="L56">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M56">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2199,21 +2229,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.2663252240717029</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L57">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="M57">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2222,50 +2252,50 @@
         <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>573</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.2540983606557377</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="L58">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="M58">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>91</v>
+        <v>576</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.2384105960264901</v>
+        <v>0.2539184952978056</v>
       </c>
       <c r="L59">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="M59">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2277,21 +2307,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>115</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.2382445141065831</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="L60">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M60">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2303,15 +2333,15 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>243</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.2325581395348837</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L61">
         <v>30</v>
@@ -2329,125 +2359,125 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.2243243243243243</v>
+        <v>0.2147239263803681</v>
       </c>
       <c r="L62">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="M62">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="N62">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>287</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.2199312714776632</v>
+        <v>0.2121951219512195</v>
       </c>
       <c r="L63">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="M63">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>227</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K64">
-        <v>0.2195121951219512</v>
+        <v>0.2054054054054054</v>
       </c>
       <c r="L64">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="M64">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>128</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.208955223880597</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="L65">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M65">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N65">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>159</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K66">
-        <v>0.2068126520681265</v>
+        <v>0.2029520295202952</v>
       </c>
       <c r="L66">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="M66">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2459,21 +2489,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>326</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.1987179487179487</v>
+        <v>0.1864035087719298</v>
       </c>
       <c r="L67">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="M67">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2485,21 +2515,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>125</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K68">
-        <v>0.1977401129943503</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L68">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M68">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2511,41 +2541,41 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K69">
-        <v>0.1938325991189427</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L69">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="M69">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="N69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>366</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K70">
-        <v>0.1881918819188192</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="L70">
         <v>51</v>
@@ -2563,21 +2593,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K71">
-        <v>0.1840909090909091</v>
+        <v>0.1742243436754177</v>
       </c>
       <c r="L71">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="M71">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2589,21 +2619,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K72">
-        <v>0.1814814814814815</v>
+        <v>0.1740740740740741</v>
       </c>
       <c r="L72">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M72">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2615,21 +2645,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K73">
-        <v>0.1694510739856802</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="L73">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="M73">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2641,21 +2671,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>348</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K74">
-        <v>0.1680672268907563</v>
+        <v>0.1681818181818182</v>
       </c>
       <c r="L74">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M74">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2667,99 +2697,99 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>198</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K75">
-        <v>0.1451612903225807</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="L75">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M75">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>212</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K76">
-        <v>0.1373626373626374</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="L76">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M76">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="N76">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O76">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>314</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K77">
-        <v>0.1291248206599713</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="L77">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="M77">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="N77">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>607</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K78">
-        <v>0.1261682242990654</v>
+        <v>0.133428981348637</v>
       </c>
       <c r="L78">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="M78">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="N78">
         <v>0.99</v>
@@ -2771,21 +2801,21 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>935</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K79">
-        <v>0.1116751269035533</v>
+        <v>0.1330645161290323</v>
       </c>
       <c r="L79">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M79">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2797,177 +2827,177 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>350</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K80">
-        <v>0.1</v>
+        <v>0.1156015037593985</v>
       </c>
       <c r="L80">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="M80">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="N80">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O80">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>468</v>
+        <v>941</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K81">
-        <v>0.09090909090909091</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="L81">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M81">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N81">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O81">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>330</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K82">
-        <v>0.08148148148148149</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="L82">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M82">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N82">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>496</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K83">
-        <v>0.07804878048780488</v>
+        <v>0.09778597785977859</v>
       </c>
       <c r="L83">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M83">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="N83">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>378</v>
+        <v>489</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K84">
-        <v>0.07410636442894507</v>
+        <v>0.09035621198957429</v>
       </c>
       <c r="L84">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="M84">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N84">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="O84">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>1062</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K85">
-        <v>0.05526315789473684</v>
+        <v>0.08880308880308881</v>
       </c>
       <c r="L85">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M85">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N85">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="O85">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>718</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K86">
-        <v>0.04365620736698499</v>
+        <v>0.07524271844660194</v>
       </c>
       <c r="L86">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M86">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N86">
         <v>0.9399999999999999</v>
@@ -2979,7 +3009,33 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>701</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K87">
+        <v>0.06117021276595744</v>
+      </c>
+      <c r="L87">
+        <v>46</v>
+      </c>
+      <c r="M87">
+        <v>61</v>
+      </c>
+      <c r="N87">
+        <v>0.75</v>
+      </c>
+      <c r="O87">
+        <v>0.25</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
